--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>616278.5902038321</v>
+        <v>613577.3735523755</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="F2" t="n">
-        <v>116.9725659584294</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>221.0427070190021</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -741,13 +741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>104.3766310120716</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>126.0087286458555</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -820,25 +820,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.5426907582583</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>68.05955538367333</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>356.3265794398808</v>
       </c>
       <c r="F5" t="n">
-        <v>383.6877278154306</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.41899097776993</v>
+        <v>12.41899097776992</v>
       </c>
       <c r="H5" t="n">
-        <v>122.8215927321932</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660374</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713877</v>
+        <v>4.360182258713721</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698459</v>
+        <v>143.0237294698458</v>
       </c>
       <c r="T6" t="n">
-        <v>107.7452826394395</v>
+        <v>193.9455960238325</v>
       </c>
       <c r="U6" t="n">
         <v>225.8398728426018</v>
@@ -1035,7 +1035,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>165.4946697765326</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6974299383169</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083602</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.244857293179382</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4735595059546</v>
       </c>
       <c r="T7" t="n">
         <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>228.9176563786573</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>170.9523725238895</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>363.5377921948945</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>176.5262955389673</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>8.90616225919203</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393747</v>
+        <v>222.6434959374197</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184546</v>
+        <v>24.14662204184555</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615206</v>
+        <v>98.88510599615211</v>
       </c>
       <c r="T11" t="n">
-        <v>72.13850398217323</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1467,7 @@
         <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530785</v>
+        <v>10.48847705530788</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>118.094087147403</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>32.08439058953237</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905237</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920368</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722608</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819407</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>102.1557845699778</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>7.155999212081729</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936176</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>115.7063133373728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936192</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>71.60395572453623</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699811</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>104.1233804225857</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>71.60395572454014</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337069</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428134</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053466</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>180.9726497471652</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>103.168699193619</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>194.9085394018853</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881277</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>42.53134576113675</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833791</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>11.56087338713341</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4031,7 +4031,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428179</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522.1002068716687</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="C2" t="n">
-        <v>522.1002068716687</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="D2" t="n">
-        <v>522.1002068716687</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="E2" t="n">
-        <v>522.1002068716687</v>
+        <v>634.1670622275113</v>
       </c>
       <c r="F2" t="n">
-        <v>403.9460998429521</v>
+        <v>627.2215614783079</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>403.9460998429522</v>
       </c>
       <c r="H2" t="n">
         <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
         <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="V2" t="n">
-        <v>788.4778634388466</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="W2" t="n">
-        <v>522.1002068716687</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="X2" t="n">
-        <v>522.1002068716687</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="Y2" t="n">
-        <v>522.1002068716687</v>
+        <v>900.5447187946894</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>211.9971269606149</v>
+        <v>275.4624604776057</v>
       </c>
       <c r="C3" t="n">
-        <v>211.9971269606149</v>
+        <v>275.4624604776057</v>
       </c>
       <c r="D3" t="n">
-        <v>211.9971269606149</v>
+        <v>126.5280508163544</v>
       </c>
       <c r="E3" t="n">
-        <v>211.9971269606149</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>66.42278870159397</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>141.1068094710482</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>287.8512331313449</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>478.4519222278687</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166548</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>691.0742594480924</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>691.0742594480924</v>
       </c>
       <c r="V3" t="n">
-        <v>801.367527981072</v>
+        <v>691.0742594480924</v>
       </c>
       <c r="W3" t="n">
-        <v>547.1301712528705</v>
+        <v>691.0742594480924</v>
       </c>
       <c r="X3" t="n">
-        <v>339.2786710473376</v>
+        <v>483.2227592425596</v>
       </c>
       <c r="Y3" t="n">
-        <v>211.9971269606149</v>
+        <v>275.4624604776057</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>719.2759572512189</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C4" t="n">
-        <v>719.2759572512189</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>569.1593178388831</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>421.24622425649</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>421.24622425649</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6273447026937</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>986.1084943659509</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512189</v>
+        <v>779.3214597764623</v>
       </c>
       <c r="T4" t="n">
-        <v>719.2759572512189</v>
+        <v>553.8524235344767</v>
       </c>
       <c r="U4" t="n">
-        <v>719.2759572512189</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="V4" t="n">
-        <v>719.2759572512189</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="W4" t="n">
-        <v>719.2759572512189</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="X4" t="n">
-        <v>719.2759572512189</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y4" t="n">
-        <v>719.2759572512189</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>554.8650298670464</v>
+        <v>410.1107921235802</v>
       </c>
       <c r="C5" t="n">
-        <v>554.8650298670464</v>
+        <v>410.1107921235802</v>
       </c>
       <c r="D5" t="n">
-        <v>554.8650298670464</v>
+        <v>410.1107921235802</v>
       </c>
       <c r="E5" t="n">
-        <v>554.8650298670464</v>
+        <v>50.18495430551877</v>
       </c>
       <c r="F5" t="n">
-        <v>167.3016684373184</v>
+        <v>43.2394535563153</v>
       </c>
       <c r="G5" t="n">
-        <v>154.7572331062377</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523445</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523445</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="J5" t="n">
-        <v>93.7664115927513</v>
+        <v>93.76641159275175</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245558</v>
+        <v>239.032598924557</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825624</v>
+        <v>456.1499114825647</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748848</v>
+        <v>729.404193174888</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202378</v>
+        <v>1011.693823202382</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798412</v>
+        <v>1264.916654798416</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189408</v>
+        <v>1446.535482189414</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261722</v>
+        <v>1389.996673518256</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261722</v>
+        <v>1389.996673518256</v>
       </c>
       <c r="U5" t="n">
-        <v>1281.09944339824</v>
+        <v>1136.345205654774</v>
       </c>
       <c r="V5" t="n">
-        <v>1281.09944339824</v>
+        <v>1136.345205654774</v>
       </c>
       <c r="W5" t="n">
-        <v>928.3307881281262</v>
+        <v>783.5765503846601</v>
       </c>
       <c r="X5" t="n">
-        <v>554.8650298670464</v>
+        <v>410.1107921235802</v>
       </c>
       <c r="Y5" t="n">
-        <v>554.8650298670464</v>
+        <v>410.1107921235802</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>351.6826054794765</v>
+        <v>351.6826054794766</v>
       </c>
       <c r="C6" t="n">
-        <v>177.2295761983495</v>
+        <v>177.2295761983496</v>
       </c>
       <c r="D6" t="n">
-        <v>177.2295761983495</v>
+        <v>177.2295761983496</v>
       </c>
       <c r="E6" t="n">
-        <v>177.2295761983495</v>
+        <v>177.2295761983496</v>
       </c>
       <c r="F6" t="n">
-        <v>30.69501822523445</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="G6" t="n">
-        <v>30.69501822523445</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="H6" t="n">
-        <v>30.69501822523445</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523445</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="J6" t="n">
-        <v>70.78704471034068</v>
+        <v>174.2721860626393</v>
       </c>
       <c r="K6" t="n">
-        <v>180.983551651651</v>
+        <v>284.46869300395</v>
       </c>
       <c r="L6" t="n">
-        <v>375.4788954830028</v>
+        <v>478.9640368353024</v>
       </c>
       <c r="M6" t="n">
-        <v>621.8026561537486</v>
+        <v>829.7791710122431</v>
       </c>
       <c r="N6" t="n">
-        <v>889.0545187259708</v>
+        <v>1097.031033584466</v>
       </c>
       <c r="O6" t="n">
-        <v>1111.317965891489</v>
+        <v>1319.294480749985</v>
       </c>
       <c r="P6" t="n">
-        <v>1270.370911090177</v>
+        <v>1478.347425948673</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.346686757971</v>
+        <v>1530.346686757977</v>
       </c>
       <c r="S6" t="n">
-        <v>1385.878273152066</v>
+        <v>1385.878273152072</v>
       </c>
       <c r="T6" t="n">
-        <v>1277.044654324349</v>
+        <v>1189.973630703756</v>
       </c>
       <c r="U6" t="n">
-        <v>1048.923570644954</v>
+        <v>961.8525470243608</v>
       </c>
       <c r="V6" t="n">
-        <v>813.7714624132109</v>
+        <v>726.7004387926181</v>
       </c>
       <c r="W6" t="n">
-        <v>559.5341056850093</v>
+        <v>559.5341056850094</v>
       </c>
       <c r="X6" t="n">
-        <v>351.6826054794765</v>
+        <v>351.6826054794766</v>
       </c>
       <c r="Y6" t="n">
-        <v>351.6826054794765</v>
+        <v>351.6826054794766</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>668.4086531357552</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="C7" t="n">
-        <v>499.4724702078483</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="D7" t="n">
-        <v>499.4724702078483</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="E7" t="n">
-        <v>499.4724702078483</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="F7" t="n">
-        <v>352.582522709938</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="G7" t="n">
-        <v>184.2012803480017</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="H7" t="n">
-        <v>31.95244983450655</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="I7" t="n">
-        <v>31.95244983450655</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523445</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223266</v>
+        <v>157.432275622327</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830388</v>
+        <v>375.1387655830395</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388151</v>
+        <v>615.0688576388161</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974822</v>
+        <v>854.7285647974836</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891672</v>
+        <v>1060.076798891673</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934021</v>
+        <v>1212.267005934023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495184</v>
+        <v>1234.200536495186</v>
       </c>
       <c r="R7" t="n">
-        <v>1113.866490402741</v>
+        <v>1234.200536495186</v>
       </c>
       <c r="S7" t="n">
-        <v>1113.866490402741</v>
+        <v>1030.691890529575</v>
       </c>
       <c r="T7" t="n">
-        <v>889.2012322792854</v>
+        <v>806.0266324061198</v>
       </c>
       <c r="U7" t="n">
-        <v>889.2012322792854</v>
+        <v>574.7966764680821</v>
       </c>
       <c r="V7" t="n">
-        <v>889.2012322792854</v>
+        <v>320.1121882621952</v>
       </c>
       <c r="W7" t="n">
-        <v>889.2012322792854</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="X7" t="n">
-        <v>889.2012322792854</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="Y7" t="n">
-        <v>668.4086531357552</v>
+        <v>30.69501822523457</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1005.344648689697</v>
+        <v>742.878294495355</v>
       </c>
       <c r="C8" t="n">
-        <v>1005.344648689697</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="D8" t="n">
-        <v>1005.344648689697</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="E8" t="n">
-        <v>1005.344648689697</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="F8" t="n">
-        <v>594.3587439000894</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270159</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926588</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W8" t="n">
-        <v>1768.949738926588</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X8" t="n">
-        <v>1395.483980665509</v>
+        <v>1133.017626471167</v>
       </c>
       <c r="Y8" t="n">
-        <v>1005.344648689697</v>
+        <v>742.878294495355</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>682.9724752679349</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="C10" t="n">
-        <v>514.036292340028</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234358</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1150.699034738196</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>1150.699034738196</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W10" t="n">
-        <v>861.2818647012352</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X10" t="n">
-        <v>861.2818647012352</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="Y10" t="n">
-        <v>861.2818647012352</v>
+        <v>60.24291006213647</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1947.664647156212</v>
+        <v>1485.490329133573</v>
       </c>
       <c r="C11" t="n">
-        <v>1578.7021302158</v>
+        <v>1485.490329133573</v>
       </c>
       <c r="D11" t="n">
-        <v>1220.43643160905</v>
+        <v>1127.224630526823</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>741.4363779285785</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194424</v>
+        <v>741.4363779285785</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605876</v>
+        <v>326.820613369724</v>
       </c>
       <c r="H11" t="n">
         <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706899</v>
+        <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656977</v>
+        <v>695.1615405656958</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625332</v>
+        <v>1216.830004625329</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087834</v>
+        <v>1828.956123087831</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484046</v>
+        <v>2455.600890484042</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.9885135353</v>
+        <v>3033.988513535296</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479998</v>
+        <v>3493.127967479995</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464065</v>
+        <v>3789.749829464062</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796039</v>
+        <v>3876.883295796037</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.99935034538</v>
+        <v>3776.999350345378</v>
       </c>
       <c r="T11" t="n">
-        <v>3704.132174605811</v>
+        <v>3573.020743926743</v>
       </c>
       <c r="U11" t="n">
-        <v>3450.63823272734</v>
+        <v>3319.526802048272</v>
       </c>
       <c r="V11" t="n">
-        <v>3450.63823272734</v>
+        <v>2988.463914704701</v>
       </c>
       <c r="W11" t="n">
-        <v>3097.869577457225</v>
+        <v>2635.695259434587</v>
       </c>
       <c r="X11" t="n">
-        <v>2724.403819196145</v>
+        <v>2262.229501173507</v>
       </c>
       <c r="Y11" t="n">
-        <v>2334.264487220334</v>
+        <v>1872.090169197695</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390851</v>
+        <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870415</v>
+        <v>193.8410919870413</v>
       </c>
       <c r="K12" t="n">
-        <v>470.776996404666</v>
+        <v>470.7769964046656</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626179</v>
+        <v>488.5008422034059</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749521</v>
+        <v>996.4574081599343</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450732</v>
+        <v>1532.266717861144</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783255</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>446.3803073756014</v>
+        <v>365.7608055583761</v>
       </c>
       <c r="C13" t="n">
-        <v>277.4441244476945</v>
+        <v>196.8246226304692</v>
       </c>
       <c r="D13" t="n">
-        <v>277.4441244476945</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="E13" t="n">
-        <v>277.4441244476945</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="F13" t="n">
-        <v>245.0356491047325</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="G13" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758648</v>
+        <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648143</v>
+        <v>364.1690246648145</v>
       </c>
       <c r="L13" t="n">
         <v>710.578865434481</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.20859537694</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
         <v>1458.341306336948</v>
@@ -5215,34 +5215,34 @@
         <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010723</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742809</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742809</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276105</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1728.355788710546</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>1439.264095659996</v>
+        <v>1358.644593842771</v>
       </c>
       <c r="V13" t="n">
-        <v>1184.579607454109</v>
+        <v>1103.960105636884</v>
       </c>
       <c r="W13" t="n">
-        <v>895.1624374171489</v>
+        <v>814.5429355999236</v>
       </c>
       <c r="X13" t="n">
-        <v>667.1728865191316</v>
+        <v>586.5533847019062</v>
       </c>
       <c r="Y13" t="n">
-        <v>446.3803073756014</v>
+        <v>365.7608055583761</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.445529061503</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>2072.35525930079</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2495.978408795858</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6605733532801</v>
+        <v>513.8536007400677</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429801</v>
+        <v>197.0043242297676</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429801</v>
+        <v>197.0043242297676</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>197.0043242297676</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797745</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.10161732705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.3090381835199</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,28 +5507,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536375</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257306</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133949</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310017</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5677,7 +5677,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.0893932798</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727407</v>
+        <v>916.2946447138394</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703092</v>
       </c>
     </row>
     <row r="20">
@@ -5747,16 +5747,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5765,13 +5765,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429801</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,49 +5911,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832658</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2307.590151828076</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5981,28 +5981,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6014,25 +6014,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K24" t="n">
-        <v>221.3431781811722</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>741.8431516380883</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C25" t="n">
-        <v>572.9069687101814</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D25" t="n">
-        <v>422.7903292978457</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>422.7903292978457</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F25" t="n">
-        <v>422.7903292978457</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6151,7 +6151,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,13 +6163,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683281</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6306,19 +6306,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>184.7035232280589</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,7 +6385,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797742</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.84215317686</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135314</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="29">
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400709</v>
+        <v>560.7825789706077</v>
       </c>
       <c r="C31" t="n">
-        <v>344.917417812164</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.917417812164</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.917417812164</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>344.917417812164</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270439</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703106</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,7 +6859,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
         <v>826.1405381797744</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925707</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="35">
@@ -6935,13 +6935,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6953,7 +6953,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188009</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C37" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D37" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E37" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="F37" t="n">
-        <v>402.724593490894</v>
+        <v>198.0274703142537</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7129,16 +7129,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925707</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490406</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="38">
@@ -7154,55 +7154,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>194.800778399829</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>194.800778399829</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642675</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>721.7774158311365</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C43" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D43" t="n">
-        <v>402.724593490894</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E43" t="n">
-        <v>402.724593490894</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908941</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2185.384895601574</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y43" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="44">
@@ -7628,7 +7628,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>184.7035232280589</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121644</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7810,7 +7810,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>47.83473395525004</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>51.53815565544039</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127268</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637017</v>
+        <v>34.43939438636983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>21.56058953000662</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>105.5468419254487</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>186.5911984019043</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>67.33400740195509</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>129.8003163722759</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>30.52138587080933</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>113.3366574333989</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927372</v>
+        <v>90.25352389927373</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905234</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>38.13892827624609</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>218.5536561769554</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>43.26526345295156</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>43.26526345294998</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24175,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>145.801494602752</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823129</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>61.40075786968316</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,16 +24649,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>180.5336875992879</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>46.45968844823039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194255</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>44.73700564187197</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25321,13 +25321,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>62.35543909864982</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>57.22910392194274</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393094</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>205.8445769401549</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194217</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1018082.409087693</v>
+        <v>1018082.409087692</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1018082.409087693</v>
+        <v>1018082.409087692</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1018082.409087693</v>
+        <v>1018082.409087692</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>410520.8849321415</v>
+      </c>
+      <c r="C2" t="n">
         <v>410520.8849321416</v>
       </c>
-      <c r="C2" t="n">
-        <v>410520.8849321415</v>
-      </c>
       <c r="D2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321418</v>
       </c>
       <c r="E2" t="n">
         <v>366294.6221371982</v>
       </c>
       <c r="F2" t="n">
-        <v>403573.2998450029</v>
+        <v>403573.299845003</v>
       </c>
       <c r="G2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.299845003</v>
       </c>
       <c r="H2" t="n">
-        <v>403573.2998450029</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="I2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="J2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.299845003</v>
       </c>
       <c r="K2" t="n">
-        <v>403573.2998450029</v>
+        <v>403573.299845003</v>
       </c>
       <c r="L2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.299845003</v>
       </c>
       <c r="M2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="N2" t="n">
+        <v>403573.2998450032</v>
+      </c>
+      <c r="O2" t="n">
         <v>403573.2998450031</v>
       </c>
-      <c r="O2" t="n">
-        <v>403573.2998450029</v>
-      </c>
       <c r="P2" t="n">
-        <v>403573.2998450029</v>
+        <v>403573.2998450031</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657065</v>
+        <v>132804.2190657081</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.072392938</v>
+        <v>265413.0723929367</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545781</v>
+        <v>313577.1573545774</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704282</v>
+        <v>189308.2687704284</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911416</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417411</v>
+        <v>30877.42926417448</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049576</v>
+        <v>65018.3450204954</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273097</v>
+        <v>81897.40371273083</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202341</v>
+        <v>49839.57413202352</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>249437.9663307044</v>
       </c>
       <c r="C4" t="n">
-        <v>213528.7967230445</v>
+        <v>213528.7967230441</v>
       </c>
       <c r="D4" t="n">
         <v>137930.4104072219</v>
@@ -26430,34 +26430,34 @@
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
+        <v>9947.144321768912</v>
+      </c>
+      <c r="H4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="H4" t="n">
-        <v>9947.144321768839</v>
-      </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768938</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768919</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768921</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768925</v>
+        <v>9947.144321768921</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768912</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.14432176891</v>
+        <v>9947.144321768916</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667491</v>
+        <v>72593.65038667503</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738573</v>
+        <v>85137.48506738569</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-582052.8651940221</v>
+        <v>-582052.8651940223</v>
       </c>
       <c r="C6" t="n">
-        <v>-8405.781243284524</v>
+        <v>-8405.781243285688</v>
       </c>
       <c r="D6" t="n">
-        <v>-85760.37030786296</v>
+        <v>-85760.37030786152</v>
       </c>
       <c r="E6" t="n">
-        <v>-42261.746046888</v>
+        <v>-42482.87736086203</v>
       </c>
       <c r="F6" t="n">
-        <v>103195.3569288987</v>
+        <v>103160.6190034629</v>
       </c>
       <c r="G6" t="n">
-        <v>292503.6256993272</v>
+        <v>292468.8877738912</v>
       </c>
       <c r="H6" t="n">
-        <v>292503.625699327</v>
+        <v>292468.8877738914</v>
       </c>
       <c r="I6" t="n">
-        <v>292503.6256993271</v>
+        <v>292468.8877738913</v>
       </c>
       <c r="J6" t="n">
-        <v>223504.471280213</v>
+        <v>223469.7333547771</v>
       </c>
       <c r="K6" t="n">
-        <v>261626.1964351527</v>
+        <v>261591.4585097168</v>
       </c>
       <c r="L6" t="n">
-        <v>227485.2806788314</v>
+        <v>227450.5427533959</v>
       </c>
       <c r="M6" t="n">
-        <v>210606.2219865961</v>
+        <v>210571.4840611605</v>
       </c>
       <c r="N6" t="n">
-        <v>242664.0515673036</v>
+        <v>242629.3136418679</v>
       </c>
       <c r="O6" t="n">
-        <v>292503.6256993269</v>
+        <v>292468.8877738914</v>
       </c>
       <c r="P6" t="n">
-        <v>292503.6256993269</v>
+        <v>292468.8877738913</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695745</v>
+        <v>717.3319511695757</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1202.241237214951</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154306</v>
+        <v>383.6877278154321</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490097</v>
+        <v>969.2208239490093</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26960,19 +26960,19 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000961</v>
+        <v>103.2769374000974</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479646</v>
+        <v>216.7329409479636</v>
       </c>
       <c r="E3" t="n">
-        <v>268.176345097412</v>
+        <v>268.1763450974113</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267227</v>
+        <v>165.7342631267229</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139245</v>
+        <v>119.9738478139259</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846081</v>
+        <v>256.8971042846067</v>
       </c>
       <c r="E4" t="n">
-        <v>328.635991848971</v>
+        <v>328.6359918489704</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506386</v>
+        <v>203.4874641506389</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015065</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139245</v>
+        <v>119.9738478139259</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846081</v>
+        <v>256.8971042846067</v>
       </c>
       <c r="M4" t="n">
-        <v>328.635991848971</v>
+        <v>328.6359918489704</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506384</v>
+        <v>203.4874641506389</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139245</v>
+        <v>119.9738478139259</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846081</v>
+        <v>256.8971042846067</v>
       </c>
       <c r="M4" t="n">
-        <v>328.635991848971</v>
+        <v>328.6359918489704</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506386</v>
+        <v>203.4874641506389</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707555</v>
       </c>
       <c r="F2" t="n">
-        <v>289.903479783282</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>191.7914676267079</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776173</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27436,10 +27436,10 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27461,13 +27461,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>53.26844944332935</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -27476,7 +27476,7 @@
         <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>79.67396713144886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>60.34097628028823</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>59.44504749999059</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117124</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508475</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>25.60379063238099</v>
       </c>
       <c r="F5" t="n">
-        <v>23.18831792628083</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>187.1200401577834</v>
+        <v>309.9416328899765</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863696</v>
+        <v>99.30025118863676</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660376</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.4722490968155</v>
@@ -27710,10 +27710,10 @@
         <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333228</v>
+        <v>97.33388804333225</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951733</v>
+        <v>36.27346476951724</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>86.20031338439304</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>86.20031338438702</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.7263422083601</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015378</v>
+        <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6603788194642104</v>
+        <v>1.905236112643436</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1307056315183</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059547</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>57.33081573673491</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>240.5953302490645</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>6.193308483574526</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.305684642969965</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>157.4004377856122</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-3.452939267845067e-12</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-1.940255363782247e-12</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-4.376943252282217e-12</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365121</v>
+        <v>2.883746537365127</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579056</v>
+        <v>29.53316922579061</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817689</v>
+        <v>111.1756383817691</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756932</v>
+        <v>244.7543826756936</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023589</v>
+        <v>366.8233736023595</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952468</v>
+        <v>455.0768316952476</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791137</v>
+        <v>506.3606591791146</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284024</v>
+        <v>514.5541040284033</v>
       </c>
       <c r="O5" t="n">
-        <v>485.878849397478</v>
+        <v>485.8788493974788</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562765</v>
+        <v>414.6863567562772</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.412183886888</v>
+        <v>311.4121838868885</v>
       </c>
       <c r="R5" t="n">
-        <v>181.146143427762</v>
+        <v>181.1461434277623</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020777</v>
+        <v>65.71337422020788</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731582</v>
+        <v>12.62360046731585</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892097</v>
+        <v>0.2306997229892101</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270406</v>
+        <v>1.542940423270408</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316418</v>
+        <v>14.90155619316421</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189775</v>
+        <v>53.12316808189784</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862623</v>
+        <v>145.7740335862626</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453795</v>
+        <v>249.1510419453799</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438659</v>
+        <v>335.0143230438665</v>
       </c>
       <c r="M6" t="n">
-        <v>390.945913387418</v>
+        <v>390.9459133874187</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189113</v>
+        <v>401.293088418912</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348671</v>
+        <v>367.1047769348677</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190654</v>
+        <v>294.6339480190659</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739557</v>
+        <v>196.954991573956</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392926</v>
+        <v>95.79765189392941</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399194</v>
+        <v>28.65944163399199</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989045</v>
+        <v>6.219132670989056</v>
       </c>
       <c r="U6" t="n">
-        <v>0.101509238373053</v>
+        <v>0.1015092383730532</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141856</v>
+        <v>1.293549420141858</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907941</v>
+        <v>11.50083029907943</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572054</v>
+        <v>38.90055892572061</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402918</v>
+        <v>91.45394400402934</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401174</v>
+        <v>150.2869235401176</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545446</v>
+        <v>192.315520154545</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773274</v>
+        <v>202.7697513773277</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022534</v>
+        <v>197.9483399022537</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669598</v>
+        <v>182.8373307669601</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960658</v>
+        <v>156.4489225960661</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266057</v>
+        <v>108.3171246266059</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565105</v>
+        <v>58.16268574565115</v>
       </c>
       <c r="S7" t="n">
-        <v>22.5430385310176</v>
+        <v>22.54303853101764</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060654</v>
+        <v>5.526983886060663</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864675</v>
+        <v>0.07055724109864688</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869146</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639241</v>
+        <v>49.49729877639239</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285605</v>
+        <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203918</v>
+        <v>410.2059184203917</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975129</v>
+        <v>614.7923367975127</v>
       </c>
       <c r="L11" t="n">
-        <v>762.704257454466</v>
+        <v>762.7042574544657</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954563</v>
+        <v>848.655443795456</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180171</v>
+        <v>862.3875761180168</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956808</v>
+        <v>814.3281336956804</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620361</v>
+        <v>695.0102219620359</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825971</v>
+        <v>521.9237322825969</v>
       </c>
       <c r="R11" t="n">
-        <v>303.599140169663</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900933</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.1570292096822</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495316</v>
+        <v>0.3866504481495315</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858574</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837097</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469214</v>
+        <v>89.03390294469212</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193138</v>
+        <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598383</v>
+        <v>417.5746757598381</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747751</v>
+        <v>156.4572543240563</v>
       </c>
       <c r="M12" t="n">
-        <v>265.0744558279815</v>
+        <v>655.2214742821481</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340509</v>
+        <v>672.5632370340505</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924477</v>
+        <v>615.2639659924474</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383448</v>
+        <v>493.8035753383446</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047542</v>
+        <v>330.094612904754</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627655</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868434</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
         <v>0.1701284769643799</v>
@@ -31911,46 +31911,46 @@
         <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092169</v>
+        <v>19.27527754092168</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798457</v>
+        <v>65.19695102798455</v>
       </c>
       <c r="J13" t="n">
         <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329028</v>
+        <v>251.8793936329027</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100543</v>
+        <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770065</v>
+        <v>339.8400926770064</v>
       </c>
       <c r="N13" t="n">
-        <v>331.759454853103</v>
+        <v>331.7594548531029</v>
       </c>
       <c r="O13" t="n">
-        <v>306.433553380624</v>
+        <v>306.4335533806239</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493066</v>
+        <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194576</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811714</v>
+        <v>97.48008457811711</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493541</v>
+        <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377488</v>
+        <v>9.263170188377485</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473724</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>539.0475940357389</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>197.6412480909884</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
@@ -32321,19 +32321,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>489.3502824033309</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32558,7 +32558,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>547.6926421044561</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>266.6561007250664</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,13 +33026,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>229.6463482471742</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,7 +33041,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,31 +33968,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>360.3952288121461</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,28 +34448,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>229.6463482471742</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>45.7835134358318</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
@@ -34787,7 +34787,7 @@
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>263.7138800015061</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877691</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900691</v>
+        <v>63.70847814900733</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573783</v>
+        <v>146.7335225573789</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252595</v>
+        <v>219.3104167252603</v>
       </c>
       <c r="M5" t="n">
-        <v>276.014425951841</v>
+        <v>276.0144259518419</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318115</v>
+        <v>285.1410404318124</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757913</v>
+        <v>255.7806379757921</v>
       </c>
       <c r="P5" t="n">
-        <v>183.453361001007</v>
+        <v>183.4533610010076</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.1064940124385</v>
+        <v>89.10649401243901</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>40.49699644960226</v>
+        <v>145.0274422600047</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710205</v>
+        <v>111.3096029710209</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639918</v>
+        <v>196.4599432639923</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794653997</v>
+        <v>354.3587213908492</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355781</v>
+        <v>269.9513763355787</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904226</v>
+        <v>224.5085324904232</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047352</v>
+        <v>160.6595406047357</v>
       </c>
       <c r="Q6" t="n">
-        <v>267.0505052237833</v>
+        <v>56.97321748793448</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142345</v>
+        <v>128.0174317142348</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148608</v>
+        <v>219.9055454148611</v>
       </c>
       <c r="M7" t="n">
-        <v>242.353628339168</v>
+        <v>242.3536283391683</v>
       </c>
       <c r="N7" t="n">
-        <v>242.080512281482</v>
+        <v>242.0805122814823</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809995</v>
+        <v>207.4224586809998</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609593</v>
+        <v>153.7274818609596</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491136</v>
+        <v>22.15508137491155</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>553.5225306839449</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937055</v>
+        <v>229.1600138937054</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525324</v>
+        <v>394.7024857525321</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844788</v>
+        <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681836</v>
+        <v>618.3092105681833</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214263</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.229922273994</v>
+        <v>584.2299222739937</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067666</v>
+        <v>463.7772262067663</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081476</v>
+        <v>299.6180424081474</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553091</v>
+        <v>88.01360235553079</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526471</v>
+        <v>117.478208152647</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854793</v>
+        <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949009</v>
+        <v>17.90287454418211</v>
       </c>
       <c r="M12" t="n">
-        <v>122.9404219059632</v>
+        <v>513.0874403601297</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507176</v>
+        <v>541.2215249507173</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480032</v>
+        <v>472.667721548003</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240145</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187327</v>
+        <v>190.1128388187325</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655348</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186284</v>
+        <v>59.91672319186279</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070199</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703704</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388471</v>
+        <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323316</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946637</v>
+        <v>331.0186812946636</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142001</v>
+        <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776323</v>
+        <v>95.37638356776314</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>396.4513495912944</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.65947400496688</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>347.2162484813126</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36054,7 +36054,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060435</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>405.5586081824378</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899031</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060454</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>128.8146617507074</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>91.80490927281522</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,7 +36689,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36756,7 +36756,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
         <v>426.2724270010451</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>91.80490927281522</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
